--- a/revref_feedback.xlsx
+++ b/revref_feedback.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A7FD7E-7484-441C-B204-1BD582BA1FB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFDDA51-E3E5-4C42-89B9-C03FBD6CEADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="17" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
   <si>
     <t>header1</t>
   </si>
@@ -460,71 +460,6 @@
     </rPh>
     <rPh sb="34" eb="35">
       <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>回答者に無回答（未選択）を許す場合は、「未選択オプションを隠す」を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Noにします</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS UI Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>選択肢に「未選択」が追加されます</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>カイトウシャ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ムカイトウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ミセンタク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ユル</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -707,10 +642,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>feedback11.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アンケートの個別回答を確認したい</t>
     <rPh sb="6" eb="10">
       <t>コベツカイトウ</t>
@@ -838,6 +769,244 @@
   </si>
   <si>
     <t>アンケートの回答状況等を評定表に入れたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>アンケートを匿名でとる場合は、「質問および回答設定」の「ユーザ名を記録する」で「匿名」を選択します
+※意図せず</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「匿名」を選択していた場合、アンケート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>開始後に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変更しても「匿名」選択中に回答したユーザを確認することはできません&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+また、複数回答を許可する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>場合は、「複数回答を許可する」で「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」を選択します</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※途中変更することができません</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="87" eb="90">
+      <t>センタクチュウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="162" eb="166">
+      <t>トチュウヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>回答者に無回答を許す場合は、「未選択オプションを隠す」を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Noにします</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>選択肢に「未選択」が追加されます</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>カイトウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ムカイトウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feedback11.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feedback12.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1324,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012FCAC9-8C70-40D8-966C-B8E6C4097B83}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1387,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D60A346-EC32-42A6-AAAE-B7B80F4B8EF1}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1503,9 +1672,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="115.5">
+    <row r="13" spans="1:4" ht="102">
       <c r="B13" s="8" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>7</v>
@@ -1530,12 +1699,12 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18.75">
@@ -1584,14 +1753,14 @@
     </row>
     <row r="22" spans="2:4" ht="37.5">
       <c r="B22" s="8" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="2:4" ht="18.75">
       <c r="B23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
@@ -1621,7 +1790,7 @@
     </row>
     <row r="27" spans="2:4" ht="18.75">
       <c r="B27" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>7</v>
@@ -1632,14 +1801,14 @@
     </row>
     <row r="28" spans="2:4" ht="27">
       <c r="B28" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="2:4" ht="18.75">
       <c r="B29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
@@ -1693,7 +1862,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1835,12 +2004,12 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="40.5">
       <c r="B17" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +2088,7 @@
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
@@ -1967,7 +2136,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1992,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -2031,13 +2200,13 @@
     </row>
     <row r="7" spans="1:4" ht="27">
       <c r="B7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +2221,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2077,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -2116,13 +2285,13 @@
     </row>
     <row r="7" spans="1:4" ht="67.5">
       <c r="B7" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2137,7 +2306,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2162,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -2201,13 +2370,13 @@
     </row>
     <row r="7" spans="1:4" ht="64.5">
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -2229,7 +2398,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C7" sqref="C7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2253,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -2292,22 +2461,14 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2319,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAF9E92-7ADD-4727-AD34-64BF84B5DD6B}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2344,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -2383,30 +2544,50 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2655,34 +2836,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2699,23 +2872,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/revref_feedback.xlsx
+++ b/revref_feedback.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFDDA51-E3E5-4C42-89B9-C03FBD6CEADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D045AA-0D06-4089-BBF0-956C188161ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="17" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="67">
   <si>
     <t>header1</t>
   </si>
@@ -1009,12 +1009,160 @@
     <t>feedback12.png</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>申し訳ありませんが、広大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>moodleには分岐質問を作成できる機能がありません</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワケ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ブンキシツモン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成後のアンケートのURLを、moodleのコースに掲載してください</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイゴ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンケートを追加したいセクションをクリックします</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;作成したアンケートをMoodle上に掲載する方法&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コースを開き、編集モードをONにします</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「活動またはリソースを追加する」をクリックし、「URL」を選びます</t>
+    <rPh sb="1" eb="3">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名称」を入力し、「外部URL」にアンケートのURLを入力します</t>
+    <rPh sb="1" eb="3">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Microsoft F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ormsなど他のサービスを使用して、作成してください</t>
+    </r>
+    <rPh sb="17" eb="18">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「保存してコースに戻る」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,6 +1246,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1121,7 +1276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1176,6 +1331,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2021,11 +2182,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FDCA13-CF7C-4E43-AE02-B2EBBEC0CD92}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2088,41 +2247,55 @@
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
     </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" ht="18.75">
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="B11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="18.75">
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="19" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="19" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
-      <c r="D15" s="1"/>
+      <c r="B15" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2480,7 +2653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAF9E92-7ADD-4727-AD34-64BF84B5DD6B}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2561,24 +2734,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2587,7 +2742,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2836,18 +2991,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2855,7 +3017,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2872,4 +3034,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/revref_feedback.xlsx
+++ b/revref_feedback.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D045AA-0D06-4089-BBF0-956C188161ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9676F600-927C-4829-A328-EEDF0BEB6788}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="17" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="65">
   <si>
     <t>header1</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t>広大moodle 教職員向けマニュアル _フィードバック</t>
@@ -99,12 +96,6 @@
       <t>キョウショクイン</t>
     </rPh>
     <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;フィードバック&lt;/h3&gt;&lt;br&gt;
-moodle 上でアンケートを行う時に使用します。
-フィードバックの作成方法は小テストに似ています。最初にフィードバックの動作設定を行い、その後に質問を登録します。&lt;br &gt;</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>feedback13.png</t>
@@ -1654,9 +1645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012FCAC9-8C70-40D8-966C-B8E6C4097B83}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1685,23 +1674,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
     </row>
-    <row r="5" spans="1:2" ht="54">
+    <row r="5" spans="1:2">
       <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="67.5">
-      <c r="B6" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="13"/>
@@ -1743,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -1763,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1783,7 +1768,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="4"/>
       <c r="B7" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1797,12 +1782,12 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>7</v>
@@ -1813,7 +1798,7 @@
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>7</v>
@@ -1824,29 +1809,29 @@
     </row>
     <row r="12" spans="1:4" ht="43.5" customHeight="1">
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="102">
       <c r="B13" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>7</v>
@@ -1860,17 +1845,17 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18.75">
       <c r="B18" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>7</v>
@@ -1881,7 +1866,7 @@
     </row>
     <row r="19" spans="2:4" ht="18.75">
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>7</v>
@@ -1892,7 +1877,7 @@
     </row>
     <row r="20" spans="2:4" ht="56.25">
       <c r="B20" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>7</v>
@@ -1903,7 +1888,7 @@
     </row>
     <row r="21" spans="2:4" ht="32.25">
       <c r="B21" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>7</v>
@@ -1914,14 +1899,14 @@
     </row>
     <row r="22" spans="2:4" ht="37.5">
       <c r="B22" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="2:4" ht="18.75">
       <c r="B23" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
@@ -1933,14 +1918,14 @@
     </row>
     <row r="25" spans="2:4" ht="18.75">
       <c r="B25" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="2:4" ht="18.75">
       <c r="B26" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>7</v>
@@ -1951,7 +1936,7 @@
     </row>
     <row r="27" spans="2:4" ht="18.75">
       <c r="B27" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>7</v>
@@ -1962,14 +1947,14 @@
     </row>
     <row r="28" spans="2:4" ht="27">
       <c r="B28" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="2:4" ht="18.75">
       <c r="B29" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
@@ -2048,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -2068,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2088,7 +2073,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="4"/>
       <c r="B7" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2102,12 +2087,12 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>7</v>
@@ -2118,7 +2103,7 @@
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>7</v>
@@ -2129,29 +2114,29 @@
     </row>
     <row r="12" spans="1:4" ht="43.5" customHeight="1">
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="115.5">
       <c r="B13" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>7</v>
@@ -2165,12 +2150,12 @@
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="40.5">
       <c r="B17" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FDCA13-CF7C-4E43-AE02-B2EBBEC0CD92}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2208,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -2228,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2247,19 +2232,19 @@
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="B7" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
@@ -2268,33 +2253,33 @@
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="B12" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="B13" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="B15" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -2354,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2373,13 +2358,13 @@
     </row>
     <row r="7" spans="1:4" ht="27">
       <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2419,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -2439,7 +2424,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2458,13 +2443,13 @@
     </row>
     <row r="7" spans="1:4" ht="67.5">
       <c r="B7" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2504,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -2524,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2543,13 +2528,13 @@
     </row>
     <row r="7" spans="1:4" ht="64.5">
       <c r="B7" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -2595,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -2615,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2634,7 +2619,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
@@ -2678,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -2698,7 +2683,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2717,7 +2702,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
@@ -2734,15 +2719,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2991,6 +2967,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3010,14 +2995,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3036,6 +3013,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
